--- a/Team-Data/2007-08/12-17-2007-08.xlsx
+++ b/Team-Data/2007-08/12-17-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.478</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="J2" t="n">
-        <v>77</v>
+        <v>77.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.44</v>
+        <v>0.435</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -696,76 +763,76 @@
         <v>12.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="O2" t="n">
-        <v>21.6</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>28.3</v>
+        <v>27.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.765</v>
+        <v>0.769</v>
       </c>
       <c r="R2" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S2" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="T2" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U2" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="V2" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>5.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>22.4</v>
+        <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.40000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.9</v>
+        <v>-1.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI2" t="n">
         <v>28</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -777,28 +844,28 @@
         <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV2" t="n">
         <v>12</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>15</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
@@ -807,16 +874,16 @@
         <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BB2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BC2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>14.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
         <v>10</v>
@@ -959,10 +1026,10 @@
         <v>3</v>
       </c>
       <c r="AO3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP3" t="n">
         <v>8</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>9</v>
       </c>
       <c r="AQ3" t="n">
         <v>8</v>
@@ -974,19 +1041,19 @@
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-6.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="n">
         <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1138,25 +1205,25 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
       </c>
       <c r="AR4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS4" t="n">
         <v>30</v>
       </c>
       <c r="AT4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU4" t="n">
         <v>26</v>
@@ -1171,13 +1238,13 @@
         <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>27</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1369,7 @@
         <v>24</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1317,7 +1384,7 @@
         <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
         <v>27</v>
@@ -1335,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU5" t="n">
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
@@ -1353,13 +1420,13 @@
         <v>16</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
         <v>15</v>
       </c>
       <c r="BA5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -1394,106 +1461,106 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>14</v>
       </c>
       <c r="G6" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="H6" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>81</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.44</v>
       </c>
-      <c r="H6" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.438</v>
-      </c>
       <c r="L6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="O6" t="n">
+        <v>18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="R6" t="n">
+        <v>12</v>
+      </c>
+      <c r="S6" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="U6" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="W6" t="n">
         <v>7</v>
       </c>
-      <c r="M6" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="O6" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.724</v>
-      </c>
-      <c r="R6" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>43</v>
-      </c>
-      <c r="U6" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="V6" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.1</v>
-      </c>
       <c r="X6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
         <v>22.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.2</v>
+        <v>-4.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>18</v>
       </c>
       <c r="AF6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG6" t="n">
         <v>19</v>
       </c>
-      <c r="AG6" t="n">
-        <v>18</v>
-      </c>
       <c r="AH6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
@@ -1502,19 +1569,19 @@
         <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
         <v>18</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS6" t="n">
         <v>16</v>
@@ -1526,7 +1593,7 @@
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
@@ -1535,19 +1602,19 @@
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ6" t="n">
         <v>24</v>
       </c>
       <c r="BA6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB6" t="n">
         <v>17</v>
       </c>
       <c r="BC6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
         <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>0.654</v>
+        <v>0.64</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
         <v>78.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.469</v>
+        <v>0.467</v>
       </c>
       <c r="L7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M7" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.344</v>
+        <v>0.348</v>
       </c>
       <c r="O7" t="n">
         <v>22.7</v>
@@ -1615,67 +1682,67 @@
         <v>27.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.836</v>
+        <v>0.833</v>
       </c>
       <c r="R7" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S7" t="n">
         <v>31.2</v>
       </c>
       <c r="T7" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U7" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.8</v>
+        <v>101.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>17</v>
@@ -1684,31 +1751,31 @@
         <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>3</v>
       </c>
       <c r="AP7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW7" t="n">
         <v>29</v>
@@ -1717,16 +1784,16 @@
         <v>10</v>
       </c>
       <c r="AY7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
@@ -1851,13 +1918,13 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
         <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>12</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1884,7 +1951,7 @@
         <v>6</v>
       </c>
       <c r="AT8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
@@ -1902,7 +1969,7 @@
         <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF9" t="n">
         <v>3</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
@@ -2036,28 +2103,28 @@
         <v>10</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
         <v>20</v>
       </c>
       <c r="AN9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>15</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>16</v>
       </c>
       <c r="AR9" t="n">
         <v>12</v>
@@ -2066,10 +2133,10 @@
         <v>21</v>
       </c>
       <c r="AT9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -2122,97 +2189,97 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.542</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="J10" t="n">
-        <v>90.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.449</v>
+        <v>0.446</v>
       </c>
       <c r="L10" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M10" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O10" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P10" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.724</v>
+        <v>0.72</v>
       </c>
       <c r="R10" t="n">
         <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="T10" t="n">
-        <v>43.2</v>
+        <v>42.8</v>
       </c>
       <c r="U10" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.8</v>
+        <v>108.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,22 +2297,22 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR10" t="n">
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT10" t="n">
         <v>10</v>
@@ -2260,22 +2327,22 @@
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ10" t="n">
         <v>25</v>
       </c>
       <c r="BA10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2449,25 @@
         <v>0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
         <v>20</v>
@@ -2415,22 +2482,22 @@
         <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT11" t="n">
         <v>7</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>20</v>
@@ -2442,13 +2509,13 @@
         <v>14</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA11" t="n">
         <v>25</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -2486,91 +2553,91 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38.7</v>
+        <v>38.3</v>
       </c>
       <c r="J12" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.447</v>
+        <v>0.441</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M12" t="n">
         <v>22.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.357</v>
+        <v>0.351</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="P12" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.753</v>
+        <v>0.749</v>
       </c>
       <c r="R12" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S12" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T12" t="n">
         <v>45.2</v>
       </c>
       <c r="U12" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="W12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
         <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.5</v>
+        <v>103.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
@@ -2579,7 +2646,7 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
         <v>2</v>
@@ -2594,19 +2661,19 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AR12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2615,19 +2682,19 @@
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AW12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX12" t="n">
         <v>5</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
@@ -2639,7 +2706,7 @@
         <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-4.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
         <v>22</v>
@@ -2773,10 +2840,10 @@
         <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
         <v>4</v>
@@ -2797,16 +2864,16 @@
         <v>12</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
         <v>20</v>
@@ -2821,7 +2888,7 @@
         <v>21</v>
       </c>
       <c r="BC13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -2928,22 +2995,22 @@
         <v>5.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
         <v>11</v>
@@ -2952,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
         <v>7</v>
@@ -2967,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
         <v>17</v>
@@ -2979,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
         <v>27</v>
@@ -2994,7 +3061,7 @@
         <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
-        <v>0.292</v>
+        <v>0.304</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.8</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
       <c r="L15" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.379</v>
+        <v>0.383</v>
       </c>
       <c r="O15" t="n">
         <v>20.3</v>
       </c>
       <c r="P15" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.768</v>
+        <v>0.772</v>
       </c>
       <c r="R15" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T15" t="n">
-        <v>41.5</v>
+        <v>41.8</v>
       </c>
       <c r="U15" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V15" t="n">
         <v>15.7</v>
@@ -3092,25 +3159,25 @@
         <v>5.6</v>
       </c>
       <c r="X15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>4.8</v>
-      </c>
       <c r="Z15" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>104</v>
+        <v>103.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-2.5</v>
+        <v>-2.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,16 +3189,16 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
         <v>16</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3149,19 +3216,19 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AR15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS15" t="n">
         <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV15" t="n">
         <v>18</v>
@@ -3170,22 +3237,22 @@
         <v>30</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
         <v>7</v>
       </c>
       <c r="BB15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -3214,67 +3281,67 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.292</v>
+        <v>0.261</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="J16" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.459</v>
+        <v>0.463</v>
       </c>
       <c r="L16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="O16" t="n">
-        <v>18.3</v>
+        <v>17.7</v>
       </c>
       <c r="P16" t="n">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R16" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="S16" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="T16" t="n">
-        <v>39.9</v>
+        <v>39.5</v>
       </c>
       <c r="U16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V16" t="n">
         <v>15.2</v>
       </c>
       <c r="W16" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y16" t="n">
         <v>3.8</v>
@@ -3283,37 +3350,37 @@
         <v>20.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.8</v>
+        <v>21.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>-4.4</v>
+        <v>-4.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
         <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>26</v>
@@ -3322,52 +3389,52 @@
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS16" t="n">
         <v>17</v>
       </c>
       <c r="AT16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AU16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
         <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -3396,160 +3463,160 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>0.417</v>
+        <v>0.435</v>
       </c>
       <c r="H17" t="n">
-        <v>48.6</v>
+        <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J17" t="n">
-        <v>80.5</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L17" t="n">
         <v>5.2</v>
       </c>
       <c r="M17" t="n">
-        <v>15.7</v>
+        <v>15.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.33</v>
+        <v>0.339</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R17" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="T17" t="n">
-        <v>41.6</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="AC17" t="n">
         <v>-4.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
         <v>24</v>
       </c>
       <c r="AM17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN17" t="n">
         <v>23</v>
       </c>
-      <c r="AN17" t="n">
-        <v>25</v>
-      </c>
       <c r="AO17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
         <v>19</v>
       </c>
       <c r="AR17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS17" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>25</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
         <v>16</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -3578,85 +3645,85 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>0.13</v>
+        <v>0.136</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J18" t="n">
-        <v>82.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L18" t="n">
         <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.337</v>
+        <v>0.342</v>
       </c>
       <c r="O18" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="P18" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="V18" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="W18" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
         <v>4.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>92.5</v>
+        <v>92.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.1</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,16 +3738,16 @@
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
         <v>19</v>
@@ -3695,7 +3762,7 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
@@ -3704,34 +3771,34 @@
         <v>29</v>
       </c>
       <c r="AT18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AX18" t="n">
         <v>20</v>
       </c>
       <c r="AY18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-5.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,7 +3929,7 @@
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="n">
         <v>15</v>
@@ -3883,7 +3950,7 @@
         <v>19</v>
       </c>
       <c r="AS19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
         <v>26</v>
@@ -3895,10 +3962,10 @@
         <v>21</v>
       </c>
       <c r="AW19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>6</v>
@@ -3907,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -3942,67 +4009,67 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="H20" t="n">
         <v>48.6</v>
       </c>
       <c r="I20" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="M20" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.367</v>
+        <v>0.379</v>
       </c>
       <c r="O20" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="P20" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.787</v>
+        <v>0.789</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T20" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="U20" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V20" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W20" t="n">
         <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y20" t="n">
         <v>4.5</v>
@@ -4011,67 +4078,67 @@
         <v>19.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>7</v>
       </c>
       <c r="AF20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>8</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AK20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL20" t="n">
         <v>8</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>10</v>
       </c>
       <c r="AM20" t="n">
         <v>8</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
@@ -4080,22 +4147,22 @@
         <v>16</v>
       </c>
       <c r="AX20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -4124,52 +4191,52 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>0.292</v>
+        <v>0.304</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="J21" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.428</v>
+        <v>0.43</v>
       </c>
       <c r="L21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M21" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O21" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="P21" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.706</v>
+        <v>0.701</v>
       </c>
       <c r="R21" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S21" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="T21" t="n">
         <v>41.8</v>
@@ -4178,31 +4245,31 @@
         <v>17.2</v>
       </c>
       <c r="V21" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W21" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Y21" t="n">
         <v>6.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB21" t="n">
         <v>93.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,19 +4281,19 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM21" t="n">
         <v>18</v>
@@ -4235,16 +4302,16 @@
         <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ21" t="n">
         <v>28</v>
       </c>
       <c r="AR21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS21" t="n">
         <v>27</v>
@@ -4256,10 +4323,10 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>30</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
         <v>12</v>
@@ -4277,7 +4344,7 @@
         <v>23</v>
       </c>
       <c r="BC21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -4306,67 +4373,67 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.654</v>
+        <v>0.68</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="J22" t="n">
-        <v>79.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="L22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="N22" t="n">
         <v>0.35</v>
       </c>
       <c r="O22" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="P22" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="R22" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="T22" t="n">
-        <v>43.8</v>
+        <v>44.1</v>
       </c>
       <c r="U22" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V22" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="W22" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X22" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y22" t="n">
         <v>4.2</v>
@@ -4375,19 +4442,19 @@
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.9</v>
+        <v>103.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>5</v>
@@ -4396,7 +4463,7 @@
         <v>5</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
         <v>13</v>
@@ -4405,7 +4472,7 @@
         <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL22" t="n">
         <v>2</v>
@@ -4417,7 +4484,7 @@
         <v>13</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4426,25 +4493,25 @@
         <v>26</v>
       </c>
       <c r="AR22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
         <v>12</v>
       </c>
       <c r="AV22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
@@ -4453,10 +4520,10 @@
         <v>12</v>
       </c>
       <c r="BA22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -4566,22 +4633,22 @@
         <v>-0.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG23" t="n">
         <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>20</v>
@@ -4596,7 +4663,7 @@
         <v>27</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO23" t="n">
         <v>23</v>
@@ -4611,22 +4678,22 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT23" t="n">
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
         <v>9</v>
@@ -4638,10 +4705,10 @@
         <v>23</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
         <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>0.72</v>
+        <v>0.708</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>42</v>
+        <v>42.3</v>
       </c>
       <c r="J24" t="n">
-        <v>85.59999999999999</v>
+        <v>86</v>
       </c>
       <c r="K24" t="n">
-        <v>0.491</v>
+        <v>0.492</v>
       </c>
       <c r="L24" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M24" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O24" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P24" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R24" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
         <v>32.4</v>
       </c>
       <c r="T24" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U24" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="V24" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
@@ -4739,19 +4806,19 @@
         <v>18.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.2</v>
+        <v>109.5</v>
       </c>
       <c r="AC24" t="n">
         <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF24" t="n">
         <v>3</v>
@@ -4772,22 +4839,22 @@
         <v>1</v>
       </c>
       <c r="AL24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM24" t="n">
         <v>3</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4823,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -4852,61 +4919,61 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
         <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J25" t="n">
         <v>77.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.463</v>
+        <v>0.465</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M25" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O25" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P25" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q25" t="n">
         <v>0.75</v>
       </c>
       <c r="R25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="T25" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U25" t="n">
         <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W25" t="n">
         <v>5.9</v>
@@ -4915,28 +4982,28 @@
         <v>4.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA25" t="n">
         <v>21.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.2</v>
+        <v>95.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1.8</v>
+        <v>-2.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
         <v>14</v>
@@ -4945,37 +5012,37 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>16</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>17</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT25" t="n">
         <v>30</v>
@@ -4984,7 +5051,7 @@
         <v>16</v>
       </c>
       <c r="AV25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW25" t="n">
         <v>28</v>
@@ -4993,19 +5060,19 @@
         <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -5112,22 +5179,22 @@
         <v>-3.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>22</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
         <v>22</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -5139,16 +5206,16 @@
         <v>22</v>
       </c>
       <c r="AM26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
         <v>5</v>
       </c>
       <c r="AP26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5157,16 +5224,16 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW26" t="n">
         <v>8</v>
@@ -5181,7 +5248,7 @@
         <v>23</v>
       </c>
       <c r="BA26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="n">
         <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.75</v>
+        <v>0.783</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
@@ -5234,67 +5301,67 @@
         <v>37.6</v>
       </c>
       <c r="J27" t="n">
-        <v>79.7</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L27" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M27" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4</v>
+        <v>0.408</v>
       </c>
       <c r="O27" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P27" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R27" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="S27" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="T27" t="n">
-        <v>40.9</v>
+        <v>40.6</v>
       </c>
       <c r="U27" t="n">
         <v>22.7</v>
       </c>
       <c r="V27" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X27" t="n">
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
         <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>2</v>
@@ -5309,7 +5376,7 @@
         <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ27" t="n">
         <v>19</v>
@@ -5318,7 +5385,7 @@
         <v>4</v>
       </c>
       <c r="AL27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM27" t="n">
         <v>6</v>
@@ -5327,19 +5394,19 @@
         <v>2</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT27" t="n">
         <v>25</v>
@@ -5348,16 +5415,16 @@
         <v>10</v>
       </c>
       <c r="AV27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX27" t="n">
         <v>27</v>
       </c>
-      <c r="AX27" t="n">
-        <v>28</v>
-      </c>
       <c r="AY27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ27" t="n">
         <v>2</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>26</v>
@@ -5485,7 +5552,7 @@
         <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH28" t="n">
         <v>12</v>
@@ -5497,7 +5564,7 @@
         <v>5</v>
       </c>
       <c r="AK28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL28" t="n">
         <v>27</v>
@@ -5512,13 +5579,13 @@
         <v>13</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
@@ -5533,10 +5600,10 @@
         <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
         <v>21</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>8</v>
@@ -5670,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI29" t="n">
         <v>12</v>
@@ -5700,34 +5767,34 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>9</v>
       </c>
       <c r="BA29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" t="n">
         <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>0.538</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5789,55 +5856,55 @@
         <v>3.7</v>
       </c>
       <c r="M30" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.333</v>
+        <v>0.336</v>
       </c>
       <c r="O30" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="P30" t="n">
-        <v>29.2</v>
+        <v>28.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.749</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.1</v>
+        <v>29.6</v>
       </c>
       <c r="T30" t="n">
-        <v>41.7</v>
+        <v>42.1</v>
       </c>
       <c r="U30" t="n">
         <v>25.8</v>
       </c>
       <c r="V30" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W30" t="n">
         <v>9.5</v>
       </c>
       <c r="X30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y30" t="n">
         <v>6.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.2</v>
+        <v>104.9</v>
       </c>
       <c r="AC30" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5846,10 +5913,10 @@
         <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
@@ -5870,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,28 +5946,28 @@
         <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY30" t="n">
         <v>29</v>
@@ -5909,13 +5976,13 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
@@ -6022,28 +6089,28 @@
         <v>2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG31" t="n">
         <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ31" t="n">
         <v>7</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
@@ -6052,28 +6119,28 @@
         <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
         <v>12</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>4</v>
       </c>
       <c r="AR31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS31" t="n">
         <v>12</v>
       </c>
       <c r="AT31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
         <v>8</v>
@@ -6082,7 +6149,7 @@
         <v>13</v>
       </c>
       <c r="AX31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY31" t="n">
         <v>8</v>
@@ -6094,7 +6161,7 @@
         <v>21</v>
       </c>
       <c r="BB31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-17-2007-08</t>
+          <t>2007-12-17</t>
         </is>
       </c>
     </row>
